--- a/Literature Review/3 Graphs data/11 Citations.xlsx
+++ b/Literature Review/3 Graphs data/11 Citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/3 Graphs data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDA635-D019-844D-92CC-93DF485AA911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0028EF4-D873-F041-887D-89B9CF4D801D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
